--- a/Forum_DB.xlsx
+++ b/Forum_DB.xlsx
@@ -73,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -169,12 +169,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Forum_DB.xlsx
+++ b/Forum_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\DueDate_Notification_vid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A1C23E-A603-4886-881F-7E2F201DD8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628838A4-C16A-42DF-9B0A-F551092F4056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -104,9 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,14 +433,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.5703125"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -461,9 +471,7 @@
       <c r="C2" s="1">
         <v>43926</v>
       </c>
-      <c r="D2">
-        <v>90000001</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -475,9 +483,7 @@
       <c r="C3" s="1">
         <v>43927</v>
       </c>
-      <c r="D3">
-        <v>90000002</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -489,9 +495,7 @@
       <c r="C4" s="1">
         <v>43928</v>
       </c>
-      <c r="D4">
-        <v>90000003</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -503,9 +507,7 @@
       <c r="C5" s="1">
         <v>43929</v>
       </c>
-      <c r="D5">
-        <v>90000004</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -517,9 +519,7 @@
       <c r="C6" s="1">
         <v>43895</v>
       </c>
-      <c r="D6">
-        <v>90000005</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -531,9 +531,7 @@
       <c r="C7" s="1">
         <v>43918</v>
       </c>
-      <c r="D7">
-        <v>90000006</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -545,9 +543,7 @@
       <c r="C8" s="1">
         <v>43926</v>
       </c>
-      <c r="D8">
-        <v>90000007</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -559,9 +555,7 @@
       <c r="C9" s="1">
         <v>43926</v>
       </c>
-      <c r="D9">
-        <v>90000008</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -573,9 +567,7 @@
       <c r="C10" s="1">
         <v>43926</v>
       </c>
-      <c r="D10">
-        <v>90000009</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -587,13 +579,12 @@
       <c r="C11" s="1">
         <v>43926</v>
       </c>
-      <c r="D11">
-        <v>90000010</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Forum_DB.xlsx
+++ b/Forum_DB.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\DueDate_Notification_vid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A9115B-763F-4140-8DDF-D76CC8CFCF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38A9CB-7A33-4590-A389-8BB2B350AAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>S.L No</t>
   </si>
@@ -42,6 +42,24 @@
     <t xml:space="preserve">email </t>
   </si>
   <si>
+    <t>membership type</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
@@ -51,49 +69,31 @@
     <t>g</t>
   </si>
   <si>
+    <t>BiAnnual</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
+    <t>Five Years</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
     <t>j</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Kishan</t>
-  </si>
-  <si>
-    <t>Danny</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,13 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,21 +434,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5703125"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,151 +463,183 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>43926</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7010092057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43560</v>
+      </c>
+      <c r="D2">
+        <v>7010092057</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>43927</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7010092057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43561</v>
+      </c>
+      <c r="D3">
+        <v>7010092057</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>43928</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7010092057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43562</v>
+      </c>
+      <c r="D4">
+        <v>7010092057</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>43929</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7010092057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43563</v>
+      </c>
+      <c r="D5">
+        <v>7010092057</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>43895</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7010092057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43529</v>
+      </c>
+      <c r="D6">
+        <v>7010092057</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>43918</v>
       </c>
-      <c r="D7" s="3">
-        <v>9791959357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>7010092057</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>43926</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9791959357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43194</v>
+      </c>
+      <c r="D8">
+        <v>7010092057</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>43926</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9791959357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42098</v>
+      </c>
+      <c r="D9">
+        <v>7010092057</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>43926</v>
       </c>
-      <c r="D10" s="3">
-        <v>9791959357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>7010092057</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>43926</v>
       </c>
-      <c r="D11" s="3">
-        <v>9791959357</v>
+      <c r="D11">
+        <v>7010092057</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
